--- a/data/lit_review/processed/taxa_key_for_species_not_in_sealifebase.xlsx
+++ b/data/lit_review/processed/taxa_key_for_species_not_in_sealifebase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240EFA0F-EA28-D442-AD59-6E97E8309DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC51FEFC-D7C8-E84E-8C1B-55226A3F6B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14540" yWindow="2220" windowWidth="21300" windowHeight="20180" xr2:uid="{A045417D-CB43-1843-BEFE-2310C9DE24D2}"/>
+    <workbookView xWindow="43520" yWindow="1420" windowWidth="21300" windowHeight="20180" xr2:uid="{A045417D-CB43-1843-BEFE-2310C9DE24D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>type</t>
   </si>
@@ -180,6 +180,21 @@
   </si>
   <si>
     <t xml:space="preserve">	Trochida</t>
+  </si>
+  <si>
+    <t>Mytella guyanensis</t>
+  </si>
+  <si>
+    <t>Mytilus coruscus</t>
+  </si>
+  <si>
+    <t>coruscus</t>
+  </si>
+  <si>
+    <t>Mytella</t>
+  </si>
+  <si>
+    <t>guyanensis</t>
   </si>
 </sst>
 </file>
@@ -559,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B39A47-EA97-F543-B7AB-EA2B3EA5D395}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,25 +616,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -630,19 +645,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -653,16 +668,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -670,22 +688,22 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -696,19 +714,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -742,42 +757,91 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
+    <sortCondition ref="G2:G9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>